--- a/va_facility_data_2025-02-20/Danville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Danville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Danville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Danville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5ead2de26130414180039a3c4074beeb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R194a2b37fc2542439273c946141e7b3a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1d565ccff776466cbdc09955c03a1afc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R313e9097a9474ddebef979cfedbff815"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra1a24f32c8ac4f4e8e67158bb1fede6f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf3d26945073443f88444537013703d38"/>
   </x:sheets>
 </x:workbook>
 </file>
